--- a/metadata/safety_specs.xlsx
+++ b/metadata/safety_specs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fanny.Gautier\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farrugir\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E28576-DC8A-4FB9-8628-58B606792BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38355" windowHeight="19995" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38352" windowHeight="19992" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -35,12 +34,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WhereClauses!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="693">
   <si>
     <t>Attribute</t>
   </si>
@@ -1940,11 +1939,270 @@
   <si>
     <t>time</t>
   </si>
+  <si>
+    <t>ADAE</t>
+  </si>
+  <si>
+    <t>ASTDT</t>
+  </si>
+  <si>
+    <t>ASTDTF</t>
+  </si>
+  <si>
+    <t>ASTDY</t>
+  </si>
+  <si>
+    <t>AENDT</t>
+  </si>
+  <si>
+    <t>AENDTF</t>
+  </si>
+  <si>
+    <t>AENDY</t>
+  </si>
+  <si>
+    <t>ADURN</t>
+  </si>
+  <si>
+    <t>ADURU</t>
+  </si>
+  <si>
+    <t>LDOSEDT</t>
+  </si>
+  <si>
+    <t>TRTEMFL</t>
+  </si>
+  <si>
+    <t>AOCCIFL</t>
+  </si>
+  <si>
+    <t>CQ01NAM</t>
+  </si>
+  <si>
+    <t>ADAE.ASTDT</t>
+  </si>
+  <si>
+    <t>ADAE.ASTDTF</t>
+  </si>
+  <si>
+    <t>ADAE.ASTDY</t>
+  </si>
+  <si>
+    <t>ADAE.AENDT</t>
+  </si>
+  <si>
+    <t>ADAE.AENDTF</t>
+  </si>
+  <si>
+    <t>ADAE.AENDY</t>
+  </si>
+  <si>
+    <t>ADAE.ADURN</t>
+  </si>
+  <si>
+    <t>ADAE.ADURU</t>
+  </si>
+  <si>
+    <t>ADAE.LDOSEDT</t>
+  </si>
+  <si>
+    <t>ADAE.TRTEMFL</t>
+  </si>
+  <si>
+    <t>ADAE.ONTRTFL</t>
+  </si>
+  <si>
+    <t>ADAE.AOCCIFL</t>
+  </si>
+  <si>
+    <t>ADAE.CQ01NAM</t>
+  </si>
+  <si>
+    <t>ADAE.SMQ01NAM</t>
+  </si>
+  <si>
+    <t>Adverse Events Analysis Dataset</t>
+  </si>
+  <si>
+    <t>Occurrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDYID, USUBJID, ASTDT, AETERM, AESEQ </t>
+  </si>
+  <si>
+    <t>Set to date version of AE end date [AE.AEENDTC] with partial dates with missing day or month set to the latest possible.</t>
+  </si>
+  <si>
+    <t>Set to date version of AE start date [AE.AESTDTC] with partial dates with missing day or month set to the earliest possible, but additionally we ensure that the imputed date doesn't go before treatment start date [ADSL.TRTSDT] or after the AE end date [ADAE.AENDT].</t>
+  </si>
+  <si>
+    <t>Set as the level of imputation applied to the above.</t>
+  </si>
+  <si>
+    <t>Set to the AE start date [ADAE.ASTDT] minus treatment start date [ADSL.TRTSDT].</t>
+  </si>
+  <si>
+    <t>Set to the AE end date [ADAE.AENDT] minus treatment start date [ADSL.TRTSDT].</t>
+  </si>
+  <si>
+    <t>Set to the AE end date [ADAE.AENDT] minus AE start date [ADAE.ASTDT] + 1.</t>
+  </si>
+  <si>
+    <t>Set to "DAYS".</t>
+  </si>
+  <si>
+    <t>Set to the last end date of exposure [EX.EXENDTC] prior to or equal to AE start date [ADAE.ASTDT], where a valid dose occurred (See note below).  
+NOTE: A valid dose is defined as (Dose per Administration [EX.EXDOSE] greater than 0) or (Dose per Administration [EX.EXDOSE] equal to 0 and Name of Actual Treatment [EX.EXTRT] contains 'PLACEBO').</t>
+  </si>
+  <si>
+    <t>Set to "Y" if AE start date [ADAE.ASTDT] is missing, or on or after treatment start date [ADSL.TRTSDT] and on or before treatment end date [ADSL.TRTEDT].</t>
+  </si>
+  <si>
+    <t>Set to "Y" if AE start date [ADAE.ASTDT] is missing, or on or after treatment start date [ADSL.TRTSDT] and on or before treatment end date [ADSL.TRTEDT] + 30 days.</t>
+  </si>
+  <si>
+    <t>Set to "Y" for the first occurrence of maximum severity [highest ADAE.AESEV] per patient when sorted by AE start date [ADAE.ASTDT] and sequence [ADAE.AESEQ].</t>
+  </si>
+  <si>
+    <t>SMQ02NAM</t>
+  </si>
+  <si>
+    <t>AESEQ</t>
+  </si>
+  <si>
+    <t>AETERM</t>
+  </si>
+  <si>
+    <t>AEDECOD</t>
+  </si>
+  <si>
+    <t>AESEV</t>
+  </si>
+  <si>
+    <t>AESER</t>
+  </si>
+  <si>
+    <t>AEACN</t>
+  </si>
+  <si>
+    <t>AEREL</t>
+  </si>
+  <si>
+    <t>AEOUT</t>
+  </si>
+  <si>
+    <t>AESTDTC</t>
+  </si>
+  <si>
+    <t>AEENDTC</t>
+  </si>
+  <si>
+    <t>AE Start Date</t>
+  </si>
+  <si>
+    <t>AE Start Day</t>
+  </si>
+  <si>
+    <t>AE Start Imputation Flag</t>
+  </si>
+  <si>
+    <t>AE End Imputation Flag</t>
+  </si>
+  <si>
+    <t>AE End Date</t>
+  </si>
+  <si>
+    <t>AE End Day</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Duration Unit</t>
+  </si>
+  <si>
+    <t>Last Dose Date</t>
+  </si>
+  <si>
+    <t>Treatment Emergent Flag</t>
+  </si>
+  <si>
+    <t>On Treatment Flag</t>
+  </si>
+  <si>
+    <t>Maximum Severity Flag</t>
+  </si>
+  <si>
+    <t>CQ01 Name</t>
+  </si>
+  <si>
+    <t>SMQ02 Name</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>AE Outcome</t>
+  </si>
+  <si>
+    <t>Related to Treatment</t>
+  </si>
+  <si>
+    <t>Action Taken</t>
+  </si>
+  <si>
+    <t>Seriousness</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>AE Preferred Term</t>
+  </si>
+  <si>
+    <t>AE Raw Term</t>
+  </si>
+  <si>
+    <t>AE.AESEQ</t>
+  </si>
+  <si>
+    <t>AE.AETERM</t>
+  </si>
+  <si>
+    <t>AE.AEDECOD</t>
+  </si>
+  <si>
+    <t>AE.AESEV</t>
+  </si>
+  <si>
+    <t>AE.AESER</t>
+  </si>
+  <si>
+    <t>AE.AEACN</t>
+  </si>
+  <si>
+    <t>AE.AEREL</t>
+  </si>
+  <si>
+    <t>AE.AEOUT</t>
+  </si>
+  <si>
+    <t>AE.AESTDTC</t>
+  </si>
+  <si>
+    <t>AE.AEENDTC</t>
+  </si>
+  <si>
+    <t>Set to the CQ name if the AE term matches any term within this AE query.</t>
+  </si>
+  <si>
+    <t>Set to the SMQ name if the AE term matches any term within this AE query.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2049,7 +2307,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2111,14 +2369,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Codelists" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal_Comments" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_Datasets" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal_Documents" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal_Study" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal_Codelists" xfId="3"/>
+    <cellStyle name="Normal_Comments" xfId="4"/>
+    <cellStyle name="Normal_Datasets" xfId="2"/>
+    <cellStyle name="Normal_Documents" xfId="5"/>
+    <cellStyle name="Normal_Study" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2134,9 +2395,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2174,9 +2435,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2211,7 +2472,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2246,7 +2507,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2419,7 +2680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
@@ -2427,14 +2688,14 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="15.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="62.44140625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2442,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>41</v>
       </c>
@@ -2450,7 +2711,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
@@ -2458,7 +2719,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
@@ -2466,7 +2727,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>44</v>
       </c>
@@ -2474,7 +2735,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>45</v>
       </c>
@@ -2482,7 +2743,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
@@ -2497,7 +2758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
@@ -2505,15 +2766,15 @@
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="19.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="62.44140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2524,7 +2785,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -2535,46 +2796,46 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A1:C4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="58.5703125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="11.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="58.5546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2603,7 +2864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>215</v>
       </c>
@@ -2628,7 +2889,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>216</v>
       </c>
@@ -2653,18 +2914,32 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>635</v>
+      </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="E4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>200</v>
+      </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -2675,7 +2950,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2686,7 +2961,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2698,43 +2973,44 @@
       <c r="I7" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I7" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:I7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="11" style="12" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="12" customWidth="1"/>
     <col min="8" max="8" width="11" style="12" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="12" customWidth="1"/>
-    <col min="12" max="13" width="11.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="11"/>
+    <col min="9" max="9" width="12.44140625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" style="12" customWidth="1"/>
+    <col min="16" max="16" width="24.5546875" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2784,7 +3060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2821,7 +3097,7 @@
       <c r="Q2"/>
       <c r="R2"/>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2860,7 +3136,7 @@
       <c r="Q3"/>
       <c r="R3"/>
     </row>
-    <row r="4" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2899,7 +3175,7 @@
       <c r="Q4"/>
       <c r="R4"/>
     </row>
-    <row r="5" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -2936,7 +3212,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -2973,7 +3249,7 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -3010,7 +3286,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -3047,7 +3323,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -3084,7 +3360,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -3123,7 +3399,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -3162,7 +3438,7 @@
       <c r="Q11"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -3199,7 +3475,7 @@
       <c r="Q12"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -3240,7 +3516,7 @@
       <c r="Q13"/>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -3281,7 +3557,7 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -3318,7 +3594,7 @@
       <c r="Q15"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -3357,7 +3633,7 @@
       <c r="Q16"/>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -3394,7 +3670,7 @@
       <c r="Q17"/>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -3433,7 +3709,7 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -3474,7 +3750,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -3513,7 +3789,7 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -3554,7 +3830,7 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -3596,7 +3872,7 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -3635,7 +3911,7 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -3674,7 +3950,7 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -3713,7 +3989,7 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -3752,7 +4028,7 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -3793,7 +4069,7 @@
       <c r="Q27"/>
       <c r="R27"/>
     </row>
-    <row r="28" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -3832,7 +4108,7 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -3871,7 +4147,7 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -3908,7 +4184,7 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -3948,7 +4224,7 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -3988,7 +4264,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -4028,7 +4304,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -4065,7 +4341,7 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -4105,7 +4381,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -4145,7 +4421,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -4182,7 +4458,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -4219,7 +4495,7 @@
       <c r="Q38"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -4256,7 +4532,7 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -4296,7 +4572,7 @@
       <c r="Q40"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -4333,7 +4609,7 @@
       <c r="Q41"/>
       <c r="R41"/>
     </row>
-    <row r="42" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -4372,7 +4648,7 @@
       <c r="Q42"/>
       <c r="R42"/>
     </row>
-    <row r="43" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -4409,7 +4685,7 @@
       <c r="Q43"/>
       <c r="R43"/>
     </row>
-    <row r="44" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -4446,7 +4722,7 @@
       <c r="Q44"/>
       <c r="R44"/>
     </row>
-    <row r="45" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -4483,7 +4759,7 @@
       <c r="Q45"/>
       <c r="R45"/>
     </row>
-    <row r="46" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -4520,7 +4796,7 @@
       <c r="Q46"/>
       <c r="R46"/>
     </row>
-    <row r="47" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -4557,7 +4833,7 @@
       <c r="Q47"/>
       <c r="R47"/>
     </row>
-    <row r="48" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -4594,7 +4870,7 @@
       <c r="Q48"/>
       <c r="R48"/>
     </row>
-    <row r="49" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -4634,7 +4910,7 @@
       <c r="Q49"/>
       <c r="R49"/>
     </row>
-    <row r="50" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -4674,7 +4950,7 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="51" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -4711,7 +4987,7 @@
       <c r="Q51"/>
       <c r="R51"/>
     </row>
-    <row r="52" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -4751,7 +5027,7 @@
       <c r="Q52"/>
       <c r="R52"/>
     </row>
-    <row r="53" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>1</v>
       </c>
@@ -4788,7 +5064,7 @@
       <c r="Q53"/>
       <c r="R53"/>
     </row>
-    <row r="54" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>2</v>
       </c>
@@ -4825,7 +5101,7 @@
       <c r="Q54"/>
       <c r="R54"/>
     </row>
-    <row r="55" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>3</v>
       </c>
@@ -4862,7 +5138,7 @@
       <c r="Q55"/>
       <c r="R55"/>
     </row>
-    <row r="56" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>4</v>
       </c>
@@ -4899,7 +5175,7 @@
       <c r="Q56"/>
       <c r="R56"/>
     </row>
-    <row r="57" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>5</v>
       </c>
@@ -4936,7 +5212,7 @@
       <c r="Q57"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>6</v>
       </c>
@@ -4973,7 +5249,7 @@
       <c r="Q58"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>7</v>
       </c>
@@ -5010,7 +5286,7 @@
       <c r="Q59"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>8</v>
       </c>
@@ -5047,7 +5323,7 @@
       <c r="Q60"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>9</v>
       </c>
@@ -5084,7 +5360,7 @@
       <c r="Q61"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>10</v>
       </c>
@@ -5121,7 +5397,7 @@
       <c r="Q62"/>
       <c r="R62"/>
     </row>
-    <row r="63" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>11</v>
       </c>
@@ -5160,7 +5436,7 @@
       <c r="Q63"/>
       <c r="R63"/>
     </row>
-    <row r="64" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>12</v>
       </c>
@@ -5199,7 +5475,7 @@
       <c r="Q64"/>
       <c r="R64"/>
     </row>
-    <row r="65" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
         <v>13</v>
       </c>
@@ -5238,7 +5514,7 @@
       <c r="Q65"/>
       <c r="R65"/>
     </row>
-    <row r="66" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>14</v>
       </c>
@@ -5277,7 +5553,7 @@
       <c r="Q66"/>
       <c r="R66"/>
     </row>
-    <row r="67" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>15</v>
       </c>
@@ -5316,7 +5592,7 @@
       <c r="Q67"/>
       <c r="R67"/>
     </row>
-    <row r="68" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>16</v>
       </c>
@@ -5356,7 +5632,7 @@
       <c r="Q68"/>
       <c r="R68"/>
     </row>
-    <row r="69" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
         <v>17</v>
       </c>
@@ -5396,7 +5672,7 @@
       <c r="Q69"/>
       <c r="R69"/>
     </row>
-    <row r="70" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
         <v>18</v>
       </c>
@@ -5436,7 +5712,7 @@
       <c r="Q70"/>
       <c r="R70"/>
     </row>
-    <row r="71" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
         <v>19</v>
       </c>
@@ -5473,7 +5749,7 @@
       <c r="Q71"/>
       <c r="R71"/>
     </row>
-    <row r="72" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
         <v>20</v>
       </c>
@@ -5510,7 +5786,7 @@
       <c r="Q72"/>
       <c r="R72"/>
     </row>
-    <row r="73" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13">
         <v>21</v>
       </c>
@@ -5547,7 +5823,7 @@
       <c r="Q73"/>
       <c r="R73"/>
     </row>
-    <row r="74" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>22</v>
       </c>
@@ -5584,7 +5860,7 @@
       <c r="Q74"/>
       <c r="R74"/>
     </row>
-    <row r="75" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13">
         <v>23</v>
       </c>
@@ -5621,7 +5897,7 @@
       <c r="Q75"/>
       <c r="R75"/>
     </row>
-    <row r="76" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13">
         <v>24</v>
       </c>
@@ -5658,7 +5934,7 @@
       <c r="Q76"/>
       <c r="R76"/>
     </row>
-    <row r="77" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>25</v>
       </c>
@@ -5695,7 +5971,7 @@
       <c r="Q77"/>
       <c r="R77"/>
     </row>
-    <row r="78" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>26</v>
       </c>
@@ -5732,7 +6008,7 @@
       <c r="Q78"/>
       <c r="R78"/>
     </row>
-    <row r="79" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13">
         <v>27</v>
       </c>
@@ -5769,7 +6045,7 @@
       <c r="Q79"/>
       <c r="R79"/>
     </row>
-    <row r="80" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13">
         <v>28</v>
       </c>
@@ -5806,7 +6082,7 @@
       <c r="Q80"/>
       <c r="R80"/>
     </row>
-    <row r="81" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13">
         <v>29</v>
       </c>
@@ -5843,7 +6119,7 @@
       <c r="Q81"/>
       <c r="R81"/>
     </row>
-    <row r="82" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="13">
         <v>30</v>
       </c>
@@ -5880,7 +6156,7 @@
       <c r="Q82"/>
       <c r="R82"/>
     </row>
-    <row r="83" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13">
         <v>31</v>
       </c>
@@ -5917,7 +6193,7 @@
       <c r="Q83"/>
       <c r="R83"/>
     </row>
-    <row r="84" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="13">
         <v>32</v>
       </c>
@@ -5954,7 +6230,7 @@
       <c r="Q84"/>
       <c r="R84"/>
     </row>
-    <row r="85" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="13">
         <v>33</v>
       </c>
@@ -5991,7 +6267,7 @@
       <c r="Q85"/>
       <c r="R85"/>
     </row>
-    <row r="86" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
         <v>34</v>
       </c>
@@ -6028,7 +6304,7 @@
       <c r="Q86"/>
       <c r="R86"/>
     </row>
-    <row r="87" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13">
         <v>35</v>
       </c>
@@ -6065,7 +6341,7 @@
       <c r="Q87"/>
       <c r="R87"/>
     </row>
-    <row r="88" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13">
         <v>36</v>
       </c>
@@ -6102,7 +6378,7 @@
       <c r="Q88"/>
       <c r="R88"/>
     </row>
-    <row r="89" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="13">
         <v>37</v>
       </c>
@@ -6139,7 +6415,7 @@
       <c r="Q89"/>
       <c r="R89"/>
     </row>
-    <row r="90" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>38</v>
       </c>
@@ -6176,7 +6452,7 @@
       <c r="Q90"/>
       <c r="R90"/>
     </row>
-    <row r="91" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="13">
         <v>39</v>
       </c>
@@ -6213,7 +6489,7 @@
       <c r="Q91"/>
       <c r="R91"/>
     </row>
-    <row r="92" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="13">
         <v>40</v>
       </c>
@@ -6250,7 +6526,7 @@
       <c r="Q92"/>
       <c r="R92"/>
     </row>
-    <row r="93" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="13">
         <v>41</v>
       </c>
@@ -6287,7 +6563,7 @@
       <c r="Q93"/>
       <c r="R93"/>
     </row>
-    <row r="94" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="13">
         <v>42</v>
       </c>
@@ -6324,7 +6600,7 @@
       <c r="Q94"/>
       <c r="R94"/>
     </row>
-    <row r="95" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13">
         <v>43</v>
       </c>
@@ -6361,7 +6637,7 @@
       <c r="Q95"/>
       <c r="R95"/>
     </row>
-    <row r="96" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="13">
         <v>44</v>
       </c>
@@ -6396,7 +6672,7 @@
       <c r="Q96"/>
       <c r="R96"/>
     </row>
-    <row r="97" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
         <v>45</v>
       </c>
@@ -6431,7 +6707,7 @@
       <c r="Q97"/>
       <c r="R97"/>
     </row>
-    <row r="98" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="13">
         <v>46</v>
       </c>
@@ -6466,7 +6742,7 @@
       <c r="Q98"/>
       <c r="R98"/>
     </row>
-    <row r="99" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
         <v>47</v>
       </c>
@@ -6499,7 +6775,7 @@
       <c r="Q99"/>
       <c r="R99"/>
     </row>
-    <row r="100" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="13">
         <v>48</v>
       </c>
@@ -6534,7 +6810,7 @@
       <c r="Q100"/>
       <c r="R100"/>
     </row>
-    <row r="101" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="13">
         <v>49</v>
       </c>
@@ -6569,7 +6845,7 @@
       <c r="Q101"/>
       <c r="R101"/>
     </row>
-    <row r="102" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13">
         <v>50</v>
       </c>
@@ -6606,7 +6882,7 @@
       <c r="Q102"/>
       <c r="R102"/>
     </row>
-    <row r="103" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
         <v>51</v>
       </c>
@@ -6641,7 +6917,7 @@
       <c r="Q103"/>
       <c r="R103"/>
     </row>
-    <row r="104" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="13">
         <v>52</v>
       </c>
@@ -6676,7 +6952,7 @@
       <c r="Q104"/>
       <c r="R104"/>
     </row>
-    <row r="105" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13">
         <v>53</v>
       </c>
@@ -6711,7 +6987,7 @@
       <c r="Q105"/>
       <c r="R105"/>
     </row>
-    <row r="106" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
         <v>54</v>
       </c>
@@ -6746,7 +7022,7 @@
       <c r="Q106"/>
       <c r="R106"/>
     </row>
-    <row r="107" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="13">
         <v>55</v>
       </c>
@@ -6781,7 +7057,7 @@
       <c r="Q107"/>
       <c r="R107"/>
     </row>
-    <row r="108" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13">
         <v>56</v>
       </c>
@@ -6816,7 +7092,7 @@
       <c r="Q108"/>
       <c r="R108"/>
     </row>
-    <row r="109" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="13">
         <v>57</v>
       </c>
@@ -6851,7 +7127,7 @@
       <c r="Q109"/>
       <c r="R109"/>
     </row>
-    <row r="110" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="13">
         <v>58</v>
       </c>
@@ -6886,7 +7162,7 @@
       <c r="Q110"/>
       <c r="R110"/>
     </row>
-    <row r="111" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="13">
         <v>59</v>
       </c>
@@ -6921,7 +7197,7 @@
       <c r="Q111"/>
       <c r="R111"/>
     </row>
-    <row r="112" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="13">
         <v>60</v>
       </c>
@@ -6956,7 +7232,7 @@
       <c r="Q112"/>
       <c r="R112"/>
     </row>
-    <row r="113" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="13">
         <v>61</v>
       </c>
@@ -6991,7 +7267,7 @@
       <c r="Q113"/>
       <c r="R113"/>
     </row>
-    <row r="114" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="13">
         <v>62</v>
       </c>
@@ -7026,7 +7302,7 @@
       <c r="Q114"/>
       <c r="R114"/>
     </row>
-    <row r="115" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="13">
         <v>63</v>
       </c>
@@ -7061,7 +7337,7 @@
       <c r="Q115"/>
       <c r="R115"/>
     </row>
-    <row r="116" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="13">
         <v>64</v>
       </c>
@@ -7096,7 +7372,7 @@
       <c r="Q116"/>
       <c r="R116"/>
     </row>
-    <row r="117" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13">
         <v>65</v>
       </c>
@@ -7131,7 +7407,7 @@
       <c r="Q117"/>
       <c r="R117"/>
     </row>
-    <row r="118" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="13">
         <v>66</v>
       </c>
@@ -7166,7 +7442,7 @@
       <c r="Q118"/>
       <c r="R118"/>
     </row>
-    <row r="119" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="13">
         <v>67</v>
       </c>
@@ -7201,7 +7477,7 @@
       <c r="Q119"/>
       <c r="R119"/>
     </row>
-    <row r="120" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="13">
         <v>68</v>
       </c>
@@ -7238,7 +7514,7 @@
       <c r="Q120"/>
       <c r="R120"/>
     </row>
-    <row r="121" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="13">
         <v>69</v>
       </c>
@@ -7275,119 +7551,1457 @@
       <c r="Q121"/>
       <c r="R121"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
-      <c r="F122"/>
-      <c r="K122" s="13"/>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A122" s="13">
+        <v>1</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C122" t="s">
+        <v>51</v>
+      </c>
+      <c r="D122" t="s">
+        <v>68</v>
+      </c>
+      <c r="E122" t="s">
+        <v>84</v>
+      </c>
+      <c r="F122">
+        <v>12</v>
+      </c>
+      <c r="G122"/>
+      <c r="H122" s="13"/>
+      <c r="I122" t="s">
+        <v>49</v>
+      </c>
+      <c r="J122"/>
+      <c r="K122" t="s">
+        <v>23</v>
+      </c>
+      <c r="L122"/>
       <c r="M122"/>
-      <c r="N122"/>
+      <c r="N122" t="s">
+        <v>374</v>
+      </c>
       <c r="O122"/>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
-      <c r="F123"/>
-      <c r="K123" s="13"/>
+      <c r="P122"/>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A123" s="13">
+        <v>2</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" t="s">
+        <v>84</v>
+      </c>
+      <c r="F123">
+        <v>50</v>
+      </c>
+      <c r="G123"/>
+      <c r="H123" s="13"/>
+      <c r="I123" t="s">
+        <v>49</v>
+      </c>
+      <c r="J123"/>
+      <c r="K123" t="s">
+        <v>23</v>
+      </c>
+      <c r="L123"/>
       <c r="M123"/>
-      <c r="N123"/>
+      <c r="N123" t="s">
+        <v>375</v>
+      </c>
       <c r="O123"/>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="13"/>
-      <c r="F124"/>
-      <c r="K124" s="13"/>
+      <c r="P123"/>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A124" s="13">
+        <v>3</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C124" t="s">
+        <v>55</v>
+      </c>
+      <c r="D124" t="s">
+        <v>72</v>
+      </c>
+      <c r="E124" t="s">
+        <v>84</v>
+      </c>
+      <c r="F124">
+        <v>50</v>
+      </c>
+      <c r="G124"/>
+      <c r="H124" s="13"/>
+      <c r="I124" t="s">
+        <v>50</v>
+      </c>
+      <c r="J124"/>
+      <c r="K124" t="s">
+        <v>23</v>
+      </c>
+      <c r="L124"/>
       <c r="M124"/>
-      <c r="N124"/>
+      <c r="N124" t="s">
+        <v>376</v>
+      </c>
       <c r="O124"/>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="13"/>
-      <c r="F125"/>
-      <c r="K125" s="13"/>
+      <c r="P124"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A125" s="13">
+        <v>4</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C125" t="s">
+        <v>57</v>
+      </c>
+      <c r="D125" t="s">
+        <v>74</v>
+      </c>
+      <c r="E125" t="s">
+        <v>84</v>
+      </c>
+      <c r="F125">
+        <v>20</v>
+      </c>
+      <c r="G125"/>
+      <c r="H125" s="13"/>
+      <c r="I125" t="s">
+        <v>50</v>
+      </c>
+      <c r="J125"/>
+      <c r="K125" t="s">
+        <v>23</v>
+      </c>
+      <c r="L125"/>
       <c r="M125"/>
-      <c r="N125"/>
+      <c r="N125" t="s">
+        <v>377</v>
+      </c>
       <c r="O125"/>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
-      <c r="F126"/>
-      <c r="K126" s="13"/>
+      <c r="P125"/>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A126" s="13">
+        <v>5</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C126" t="s">
+        <v>144</v>
+      </c>
+      <c r="D126" t="s">
+        <v>145</v>
+      </c>
+      <c r="E126" t="s">
+        <v>84</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126"/>
+      <c r="H126" s="13"/>
+      <c r="I126" t="s">
+        <v>50</v>
+      </c>
+      <c r="J126"/>
+      <c r="K126" t="s">
+        <v>23</v>
+      </c>
+      <c r="L126"/>
       <c r="M126"/>
-      <c r="N126"/>
+      <c r="N126" t="s">
+        <v>379</v>
+      </c>
       <c r="O126"/>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="13"/>
-      <c r="F127"/>
-      <c r="K127" s="13"/>
+      <c r="P126"/>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A127" s="13">
+        <v>6</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C127" t="s">
+        <v>67</v>
+      </c>
+      <c r="D127" t="s">
+        <v>83</v>
+      </c>
+      <c r="E127" t="s">
+        <v>84</v>
+      </c>
+      <c r="F127">
+        <v>3</v>
+      </c>
+      <c r="G127"/>
+      <c r="H127" s="13"/>
+      <c r="I127" t="s">
+        <v>50</v>
+      </c>
+      <c r="J127"/>
+      <c r="K127" t="s">
+        <v>23</v>
+      </c>
+      <c r="L127"/>
       <c r="M127"/>
-      <c r="N127"/>
+      <c r="N127" t="s">
+        <v>380</v>
+      </c>
       <c r="O127"/>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="13"/>
-      <c r="F128"/>
-      <c r="K128" s="13"/>
+      <c r="P127"/>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A128" s="13">
+        <v>7</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C128" t="s">
+        <v>62</v>
+      </c>
+      <c r="D128" t="s">
+        <v>234</v>
+      </c>
+      <c r="E128" t="s">
+        <v>84</v>
+      </c>
+      <c r="F128">
+        <v>200</v>
+      </c>
+      <c r="G128"/>
+      <c r="H128" s="13"/>
+      <c r="I128" t="s">
+        <v>50</v>
+      </c>
+      <c r="J128"/>
+      <c r="K128" t="s">
+        <v>23</v>
+      </c>
+      <c r="L128"/>
       <c r="M128"/>
-      <c r="N128"/>
+      <c r="N128" t="s">
+        <v>381</v>
+      </c>
       <c r="O128"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
-      <c r="F129"/>
-      <c r="K129" s="13"/>
+      <c r="P128"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A129" s="13">
+        <v>8</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C129" t="s">
+        <v>58</v>
+      </c>
+      <c r="D129" t="s">
+        <v>75</v>
+      </c>
+      <c r="E129" t="s">
+        <v>226</v>
+      </c>
+      <c r="F129">
+        <v>8</v>
+      </c>
+      <c r="G129"/>
+      <c r="H129" s="13"/>
+      <c r="I129" t="s">
+        <v>49</v>
+      </c>
+      <c r="J129"/>
+      <c r="K129" t="s">
+        <v>23</v>
+      </c>
+      <c r="L129"/>
       <c r="M129"/>
-      <c r="N129"/>
+      <c r="N129" t="s">
+        <v>382</v>
+      </c>
       <c r="O129"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130" s="13"/>
-      <c r="F130"/>
-      <c r="K130" s="13"/>
+      <c r="P129"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A130" s="13">
+        <v>9</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C130" t="s">
+        <v>59</v>
+      </c>
+      <c r="D130" t="s">
+        <v>76</v>
+      </c>
+      <c r="E130" t="s">
+        <v>84</v>
+      </c>
+      <c r="F130">
+        <v>6</v>
+      </c>
+      <c r="G130"/>
+      <c r="H130" s="13"/>
+      <c r="I130" t="s">
+        <v>49</v>
+      </c>
+      <c r="J130"/>
+      <c r="K130" t="s">
+        <v>23</v>
+      </c>
+      <c r="L130"/>
       <c r="M130"/>
-      <c r="N130"/>
+      <c r="N130" t="s">
+        <v>383</v>
+      </c>
       <c r="O130"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A131" s="13"/>
-      <c r="F131"/>
-      <c r="K131" s="13"/>
+      <c r="P130"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A131" s="13">
+        <v>10</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C131" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131" t="s">
+        <v>77</v>
+      </c>
+      <c r="E131" t="s">
+        <v>84</v>
+      </c>
+      <c r="F131">
+        <v>6</v>
+      </c>
+      <c r="G131"/>
+      <c r="H131" s="13"/>
+      <c r="I131" t="s">
+        <v>49</v>
+      </c>
+      <c r="J131" t="s">
+        <v>573</v>
+      </c>
+      <c r="K131" t="s">
+        <v>23</v>
+      </c>
+      <c r="L131"/>
       <c r="M131"/>
-      <c r="N131"/>
+      <c r="N131" t="s">
+        <v>384</v>
+      </c>
       <c r="O131"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A132" s="13"/>
-      <c r="F132"/>
-      <c r="K132" s="13"/>
+      <c r="P131"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A132" s="13">
+        <v>11</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C132" t="s">
+        <v>61</v>
+      </c>
+      <c r="D132" t="s">
+        <v>78</v>
+      </c>
+      <c r="E132" t="s">
+        <v>84</v>
+      </c>
+      <c r="F132">
+        <v>60</v>
+      </c>
+      <c r="G132"/>
+      <c r="H132" s="13"/>
+      <c r="I132" t="s">
+        <v>49</v>
+      </c>
+      <c r="J132" t="s">
+        <v>569</v>
+      </c>
+      <c r="K132" t="s">
+        <v>23</v>
+      </c>
+      <c r="L132"/>
       <c r="M132"/>
-      <c r="N132"/>
+      <c r="N132" t="s">
+        <v>385</v>
+      </c>
       <c r="O132"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133" s="13"/>
-      <c r="F133"/>
-      <c r="K133" s="13"/>
+      <c r="P132"/>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A133" s="13">
+        <v>12</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C133" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133" t="s">
+        <v>128</v>
+      </c>
+      <c r="E133" t="s">
+        <v>84</v>
+      </c>
+      <c r="F133">
+        <v>40</v>
+      </c>
+      <c r="G133"/>
+      <c r="H133" s="13"/>
+      <c r="I133" t="s">
+        <v>49</v>
+      </c>
+      <c r="J133" t="s">
+        <v>265</v>
+      </c>
+      <c r="K133" t="s">
+        <v>23</v>
+      </c>
+      <c r="L133"/>
       <c r="M133"/>
-      <c r="N133"/>
+      <c r="N133" t="s">
+        <v>291</v>
+      </c>
       <c r="O133"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134" s="13"/>
-      <c r="F134"/>
-      <c r="K134" s="13"/>
+      <c r="P133"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A134" s="13">
+        <v>13</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C134" t="s">
+        <v>129</v>
+      </c>
+      <c r="D134" t="s">
+        <v>130</v>
+      </c>
+      <c r="E134" t="s">
+        <v>84</v>
+      </c>
+      <c r="F134">
+        <v>40</v>
+      </c>
+      <c r="G134"/>
+      <c r="H134" s="13"/>
+      <c r="I134" t="s">
+        <v>50</v>
+      </c>
+      <c r="J134" t="s">
+        <v>265</v>
+      </c>
+      <c r="K134" t="s">
+        <v>23</v>
+      </c>
+      <c r="L134"/>
       <c r="M134"/>
-      <c r="N134"/>
+      <c r="N134" t="s">
+        <v>292</v>
+      </c>
       <c r="O134"/>
+      <c r="P134"/>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A135" s="13">
+        <v>14</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C135" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" t="s">
+        <v>139</v>
+      </c>
+      <c r="E135" t="s">
+        <v>226</v>
+      </c>
+      <c r="F135">
+        <v>8</v>
+      </c>
+      <c r="G135"/>
+      <c r="H135" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I135" t="s">
+        <v>50</v>
+      </c>
+      <c r="J135"/>
+      <c r="K135" t="s">
+        <v>23</v>
+      </c>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135" t="s">
+        <v>293</v>
+      </c>
+      <c r="O135"/>
+      <c r="P135"/>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A136" s="13">
+        <v>15</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C136" t="s">
+        <v>131</v>
+      </c>
+      <c r="D136" t="s">
+        <v>132</v>
+      </c>
+      <c r="E136" t="s">
+        <v>226</v>
+      </c>
+      <c r="F136">
+        <v>8</v>
+      </c>
+      <c r="G136"/>
+      <c r="H136" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I136" t="s">
+        <v>50</v>
+      </c>
+      <c r="J136"/>
+      <c r="K136" t="s">
+        <v>23</v>
+      </c>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136" t="s">
+        <v>295</v>
+      </c>
+      <c r="O136"/>
+      <c r="P136"/>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A137" s="13">
+        <v>16</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C137" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" t="s">
+        <v>141</v>
+      </c>
+      <c r="E137" t="s">
+        <v>226</v>
+      </c>
+      <c r="F137">
+        <v>8</v>
+      </c>
+      <c r="G137"/>
+      <c r="H137" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I137" t="s">
+        <v>50</v>
+      </c>
+      <c r="J137"/>
+      <c r="K137" t="s">
+        <v>23</v>
+      </c>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137" t="s">
+        <v>297</v>
+      </c>
+      <c r="O137"/>
+      <c r="P137"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A138" s="13">
+        <v>17</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C138" t="s">
+        <v>124</v>
+      </c>
+      <c r="D138" t="s">
+        <v>118</v>
+      </c>
+      <c r="E138" t="s">
+        <v>84</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138"/>
+      <c r="H138" s="13"/>
+      <c r="I138" t="s">
+        <v>50</v>
+      </c>
+      <c r="J138"/>
+      <c r="K138" t="s">
+        <v>23</v>
+      </c>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138" t="s">
+        <v>590</v>
+      </c>
+      <c r="O138"/>
+      <c r="P138"/>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A139" s="13">
+        <v>18</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C139" t="s">
+        <v>250</v>
+      </c>
+      <c r="D139" t="s">
+        <v>251</v>
+      </c>
+      <c r="E139" t="s">
+        <v>226</v>
+      </c>
+      <c r="F139">
+        <v>8</v>
+      </c>
+      <c r="G139"/>
+      <c r="H139" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I139" t="s">
+        <v>50</v>
+      </c>
+      <c r="J139"/>
+      <c r="K139" t="s">
+        <v>23</v>
+      </c>
+      <c r="L139"/>
+      <c r="M139" s="11"/>
+      <c r="N139" t="s">
+        <v>301</v>
+      </c>
+      <c r="O139"/>
+      <c r="P139"/>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A140" s="13">
+        <v>19</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C140" t="s">
+        <v>649</v>
+      </c>
+      <c r="D140" t="s">
+        <v>342</v>
+      </c>
+      <c r="E140" t="s">
+        <v>226</v>
+      </c>
+      <c r="F140">
+        <v>8</v>
+      </c>
+      <c r="G140"/>
+      <c r="H140" s="13"/>
+      <c r="I140" t="s">
+        <v>50</v>
+      </c>
+      <c r="J140"/>
+      <c r="K140" t="s">
+        <v>23</v>
+      </c>
+      <c r="L140"/>
+      <c r="M140" s="11"/>
+      <c r="N140" t="s">
+        <v>681</v>
+      </c>
+      <c r="O140"/>
+      <c r="P140"/>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A141" s="13">
+        <v>20</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C141" t="s">
+        <v>650</v>
+      </c>
+      <c r="D141" t="s">
+        <v>680</v>
+      </c>
+      <c r="E141" t="s">
+        <v>84</v>
+      </c>
+      <c r="F141">
+        <v>200</v>
+      </c>
+      <c r="G141"/>
+      <c r="H141" s="13"/>
+      <c r="I141" t="s">
+        <v>50</v>
+      </c>
+      <c r="J141"/>
+      <c r="K141" t="s">
+        <v>23</v>
+      </c>
+      <c r="L141"/>
+      <c r="M141" s="11"/>
+      <c r="N141" t="s">
+        <v>682</v>
+      </c>
+      <c r="O141"/>
+      <c r="P141"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A142" s="13">
+        <v>21</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C142" t="s">
+        <v>651</v>
+      </c>
+      <c r="D142" t="s">
+        <v>679</v>
+      </c>
+      <c r="E142" t="s">
+        <v>84</v>
+      </c>
+      <c r="F142">
+        <v>200</v>
+      </c>
+      <c r="G142"/>
+      <c r="H142" s="13"/>
+      <c r="I142" t="s">
+        <v>50</v>
+      </c>
+      <c r="J142"/>
+      <c r="K142" t="s">
+        <v>23</v>
+      </c>
+      <c r="L142"/>
+      <c r="M142" s="11"/>
+      <c r="N142" t="s">
+        <v>683</v>
+      </c>
+      <c r="O142"/>
+      <c r="P142"/>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A143" s="13">
+        <v>22</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C143" t="s">
+        <v>652</v>
+      </c>
+      <c r="D143" t="s">
+        <v>678</v>
+      </c>
+      <c r="E143" t="s">
+        <v>84</v>
+      </c>
+      <c r="F143">
+        <v>40</v>
+      </c>
+      <c r="G143"/>
+      <c r="H143" s="13"/>
+      <c r="I143" t="s">
+        <v>50</v>
+      </c>
+      <c r="J143"/>
+      <c r="K143" t="s">
+        <v>23</v>
+      </c>
+      <c r="L143"/>
+      <c r="M143" s="11"/>
+      <c r="N143" t="s">
+        <v>684</v>
+      </c>
+      <c r="O143"/>
+      <c r="P143"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A144" s="13">
+        <v>23</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C144" t="s">
+        <v>653</v>
+      </c>
+      <c r="D144" t="s">
+        <v>677</v>
+      </c>
+      <c r="E144" t="s">
+        <v>84</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144"/>
+      <c r="H144" s="13"/>
+      <c r="I144" t="s">
+        <v>50</v>
+      </c>
+      <c r="J144"/>
+      <c r="K144" t="s">
+        <v>23</v>
+      </c>
+      <c r="L144"/>
+      <c r="M144" s="11"/>
+      <c r="N144" t="s">
+        <v>685</v>
+      </c>
+      <c r="O144"/>
+      <c r="P144"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A145" s="13">
+        <v>24</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C145" t="s">
+        <v>654</v>
+      </c>
+      <c r="D145" t="s">
+        <v>676</v>
+      </c>
+      <c r="E145" t="s">
+        <v>84</v>
+      </c>
+      <c r="F145">
+        <v>200</v>
+      </c>
+      <c r="G145"/>
+      <c r="H145" s="13"/>
+      <c r="I145" t="s">
+        <v>50</v>
+      </c>
+      <c r="J145"/>
+      <c r="K145" t="s">
+        <v>23</v>
+      </c>
+      <c r="L145"/>
+      <c r="M145" s="11"/>
+      <c r="N145" t="s">
+        <v>686</v>
+      </c>
+      <c r="O145"/>
+      <c r="P145"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A146" s="13">
+        <v>25</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C146" t="s">
+        <v>655</v>
+      </c>
+      <c r="D146" t="s">
+        <v>675</v>
+      </c>
+      <c r="E146" t="s">
+        <v>84</v>
+      </c>
+      <c r="F146">
+        <v>200</v>
+      </c>
+      <c r="G146"/>
+      <c r="H146" s="13"/>
+      <c r="I146" t="s">
+        <v>50</v>
+      </c>
+      <c r="J146"/>
+      <c r="K146" t="s">
+        <v>23</v>
+      </c>
+      <c r="L146"/>
+      <c r="M146" s="11"/>
+      <c r="N146" t="s">
+        <v>687</v>
+      </c>
+      <c r="O146"/>
+      <c r="P146"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A147" s="13">
+        <v>26</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C147" t="s">
+        <v>656</v>
+      </c>
+      <c r="D147" t="s">
+        <v>674</v>
+      </c>
+      <c r="E147" t="s">
+        <v>84</v>
+      </c>
+      <c r="F147">
+        <v>200</v>
+      </c>
+      <c r="G147"/>
+      <c r="H147" s="13"/>
+      <c r="I147" t="s">
+        <v>50</v>
+      </c>
+      <c r="J147"/>
+      <c r="K147" t="s">
+        <v>23</v>
+      </c>
+      <c r="L147"/>
+      <c r="M147" s="11"/>
+      <c r="N147" t="s">
+        <v>688</v>
+      </c>
+      <c r="O147"/>
+      <c r="P147"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A148" s="13">
+        <v>27</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C148" t="s">
+        <v>657</v>
+      </c>
+      <c r="D148" t="s">
+        <v>659</v>
+      </c>
+      <c r="E148" t="s">
+        <v>84</v>
+      </c>
+      <c r="F148">
+        <v>25</v>
+      </c>
+      <c r="G148"/>
+      <c r="H148" s="13"/>
+      <c r="I148" t="s">
+        <v>50</v>
+      </c>
+      <c r="J148"/>
+      <c r="K148" t="s">
+        <v>23</v>
+      </c>
+      <c r="L148"/>
+      <c r="M148" s="11"/>
+      <c r="N148" t="s">
+        <v>689</v>
+      </c>
+      <c r="O148"/>
+      <c r="P148"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A149" s="13">
+        <v>28</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C149" t="s">
+        <v>658</v>
+      </c>
+      <c r="D149" t="s">
+        <v>663</v>
+      </c>
+      <c r="E149" t="s">
+        <v>84</v>
+      </c>
+      <c r="F149">
+        <v>25</v>
+      </c>
+      <c r="G149"/>
+      <c r="H149" s="13"/>
+      <c r="I149" t="s">
+        <v>50</v>
+      </c>
+      <c r="J149"/>
+      <c r="K149" t="s">
+        <v>23</v>
+      </c>
+      <c r="L149"/>
+      <c r="M149" s="11"/>
+      <c r="N149" t="s">
+        <v>690</v>
+      </c>
+      <c r="O149"/>
+      <c r="P149"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A150" s="13">
+        <v>29</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="E150" t="s">
+        <v>226</v>
+      </c>
+      <c r="F150">
+        <v>8</v>
+      </c>
+      <c r="G150"/>
+      <c r="H150" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I150" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150" t="s">
+        <v>85</v>
+      </c>
+      <c r="M150" s="12" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A151" s="13">
+        <v>30</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I151" t="s">
+        <v>49</v>
+      </c>
+      <c r="K151" t="s">
+        <v>85</v>
+      </c>
+      <c r="M151" s="12" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A152" s="13">
+        <v>31</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="E152" t="s">
+        <v>226</v>
+      </c>
+      <c r="F152">
+        <v>8</v>
+      </c>
+      <c r="I152" t="s">
+        <v>49</v>
+      </c>
+      <c r="K152" t="s">
+        <v>85</v>
+      </c>
+      <c r="M152" s="12" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A153" s="13">
+        <v>32</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="E153" t="s">
+        <v>226</v>
+      </c>
+      <c r="F153">
+        <v>8</v>
+      </c>
+      <c r="G153"/>
+      <c r="H153" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I153" t="s">
+        <v>49</v>
+      </c>
+      <c r="K153" t="s">
+        <v>85</v>
+      </c>
+      <c r="M153" s="12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A154" s="13">
+        <v>33</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I154" t="s">
+        <v>49</v>
+      </c>
+      <c r="K154" t="s">
+        <v>85</v>
+      </c>
+      <c r="M154" s="12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A155" s="13">
+        <v>34</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="E155" t="s">
+        <v>226</v>
+      </c>
+      <c r="F155">
+        <v>8</v>
+      </c>
+      <c r="I155" t="s">
+        <v>49</v>
+      </c>
+      <c r="K155" t="s">
+        <v>85</v>
+      </c>
+      <c r="M155" s="12" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A156" s="13">
+        <v>35</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="E156" t="s">
+        <v>226</v>
+      </c>
+      <c r="F156">
+        <v>8</v>
+      </c>
+      <c r="I156" t="s">
+        <v>49</v>
+      </c>
+      <c r="K156" t="s">
+        <v>85</v>
+      </c>
+      <c r="M156" s="12" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A157" s="13">
+        <v>36</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="E157" t="s">
+        <v>84</v>
+      </c>
+      <c r="F157">
+        <v>40</v>
+      </c>
+      <c r="I157" t="s">
+        <v>49</v>
+      </c>
+      <c r="K157" t="s">
+        <v>85</v>
+      </c>
+      <c r="M157" s="12" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A158" s="13">
+        <v>37</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="E158" t="s">
+        <v>226</v>
+      </c>
+      <c r="F158">
+        <v>8</v>
+      </c>
+      <c r="G158"/>
+      <c r="H158" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I158" t="s">
+        <v>49</v>
+      </c>
+      <c r="K158" t="s">
+        <v>85</v>
+      </c>
+      <c r="M158" s="12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A159" s="13">
+        <v>38</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I159" t="s">
+        <v>49</v>
+      </c>
+      <c r="K159" t="s">
+        <v>85</v>
+      </c>
+      <c r="M159" s="12" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A160" s="13">
+        <v>39</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I160" t="s">
+        <v>49</v>
+      </c>
+      <c r="K160" t="s">
+        <v>85</v>
+      </c>
+      <c r="M160" s="12" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" s="13">
+        <v>40</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I161" t="s">
+        <v>49</v>
+      </c>
+      <c r="K161" t="s">
+        <v>85</v>
+      </c>
+      <c r="M161" s="12" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162" s="13">
+        <v>41</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="I162" t="s">
+        <v>49</v>
+      </c>
+      <c r="K162" t="s">
+        <v>85</v>
+      </c>
+      <c r="M162" s="12" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163" s="13">
+        <v>42</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="I163" t="s">
+        <v>49</v>
+      </c>
+      <c r="K163" t="s">
+        <v>85</v>
+      </c>
+      <c r="M163" s="12" t="s">
+        <v>633</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:P1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
@@ -7395,25 +9009,25 @@
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="11" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" style="12" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="11" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" style="12" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="12" customWidth="1"/>
     <col min="9" max="9" width="11" style="12" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
-    <col min="11" max="12" width="12.85546875" style="12" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="12" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="12" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="11"/>
+    <col min="10" max="10" width="11.6640625" style="12" customWidth="1"/>
+    <col min="11" max="12" width="12.88671875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -7464,13 +9078,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:P1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
@@ -7478,17 +9092,17 @@
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="23.44140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -7506,13 +9120,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
@@ -7522,22 +9136,22 @@
       <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="11"/>
-    <col min="10" max="10" width="20.7109375" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="22.109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="10" max="10" width="20.6640625" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -7563,7 +9177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>587</v>
       </c>
@@ -7585,7 +9199,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>587</v>
       </c>
@@ -7607,7 +9221,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>587</v>
       </c>
@@ -7629,7 +9243,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>262</v>
       </c>
@@ -7651,7 +9265,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>262</v>
       </c>
@@ -7673,7 +9287,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>262</v>
       </c>
@@ -7695,7 +9309,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>263</v>
       </c>
@@ -7719,7 +9333,7 @@
       </c>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>263</v>
       </c>
@@ -7743,7 +9357,7 @@
       </c>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>263</v>
       </c>
@@ -7767,7 +9381,7 @@
       </c>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -7791,7 +9405,7 @@
       </c>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>569</v>
       </c>
@@ -7815,7 +9429,7 @@
       </c>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>569</v>
       </c>
@@ -7839,7 +9453,7 @@
       </c>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>569</v>
       </c>
@@ -7863,7 +9477,7 @@
       </c>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>569</v>
       </c>
@@ -7885,7 +9499,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>570</v>
       </c>
@@ -7907,7 +9521,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>570</v>
       </c>
@@ -7929,7 +9543,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>570</v>
       </c>
@@ -7951,7 +9565,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>570</v>
       </c>
@@ -7973,7 +9587,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>570</v>
       </c>
@@ -7995,7 +9609,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>571</v>
       </c>
@@ -8017,7 +9631,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>571</v>
       </c>
@@ -8039,7 +9653,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>571</v>
       </c>
@@ -8061,7 +9675,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>572</v>
       </c>
@@ -8085,7 +9699,7 @@
       <c r="I24" s="17"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>572</v>
       </c>
@@ -8109,7 +9723,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>572</v>
       </c>
@@ -8133,7 +9747,7 @@
       <c r="I26" s="16"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>259</v>
       </c>
@@ -8155,7 +9769,7 @@
       <c r="I27" s="16"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>259</v>
       </c>
@@ -8177,7 +9791,7 @@
       <c r="I28" s="17"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>259</v>
       </c>
@@ -8197,7 +9811,7 @@
       <c r="G29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>260</v>
       </c>
@@ -8219,7 +9833,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>260</v>
       </c>
@@ -8241,7 +9855,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>260</v>
       </c>
@@ -8263,7 +9877,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>573</v>
       </c>
@@ -8289,7 +9903,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>573</v>
       </c>
@@ -8315,7 +9929,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>573</v>
       </c>
@@ -8341,7 +9955,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>573</v>
       </c>
@@ -8367,7 +9981,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>265</v>
       </c>
@@ -8387,7 +10001,7 @@
       <c r="G37"/>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>265</v>
       </c>
@@ -8407,7 +10021,7 @@
       <c r="G38"/>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>265</v>
       </c>
@@ -8427,7 +10041,7 @@
       <c r="G39"/>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>265</v>
       </c>
@@ -8447,7 +10061,7 @@
       <c r="G40"/>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>266</v>
       </c>
@@ -8469,7 +10083,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>266</v>
       </c>
@@ -8491,7 +10105,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>266</v>
       </c>
@@ -8513,7 +10127,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>266</v>
       </c>
@@ -8535,7 +10149,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>479</v>
       </c>
@@ -8561,7 +10175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>479</v>
       </c>
@@ -8587,7 +10201,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>479</v>
       </c>
@@ -8613,7 +10227,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>479</v>
       </c>
@@ -8639,7 +10253,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>267</v>
       </c>
@@ -8663,7 +10277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>264</v>
       </c>
@@ -8687,7 +10301,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>264</v>
       </c>
@@ -8711,7 +10325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -8733,7 +10347,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>371</v>
       </c>
@@ -8759,7 +10373,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>371</v>
       </c>
@@ -8785,7 +10399,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>371</v>
       </c>
@@ -8811,7 +10425,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>371</v>
       </c>
@@ -8837,7 +10451,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>371</v>
       </c>
@@ -8863,7 +10477,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>371</v>
       </c>
@@ -8889,7 +10503,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>371</v>
       </c>
@@ -8915,7 +10529,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>371</v>
       </c>
@@ -8941,7 +10555,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>371</v>
       </c>
@@ -8967,7 +10581,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>373</v>
       </c>
@@ -8991,7 +10605,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>373</v>
       </c>
@@ -9015,7 +10629,7 @@
       </c>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>373</v>
       </c>
@@ -9039,7 +10653,7 @@
       </c>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>373</v>
       </c>
@@ -9063,7 +10677,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>373</v>
       </c>
@@ -9087,7 +10701,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>373</v>
       </c>
@@ -9111,7 +10725,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>373</v>
       </c>
@@ -9135,7 +10749,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>373</v>
       </c>
@@ -9159,7 +10773,7 @@
       </c>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>373</v>
       </c>
@@ -9183,7 +10797,7 @@
       </c>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>372</v>
       </c>
@@ -9205,7 +10819,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>372</v>
       </c>
@@ -9227,7 +10841,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -9249,7 +10863,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>372</v>
       </c>
@@ -9271,7 +10885,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>372</v>
       </c>
@@ -9293,7 +10907,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>372</v>
       </c>
@@ -9315,7 +10929,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>372</v>
       </c>
@@ -9337,7 +10951,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>372</v>
       </c>
@@ -9359,7 +10973,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>372</v>
       </c>
@@ -9381,7 +10995,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -9390,7 +11004,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -9399,7 +11013,7 @@
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -9407,7 +11021,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -9416,7 +11030,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -9425,7 +11039,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -9434,7 +11048,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -9443,7 +11057,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -9452,7 +11066,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -9461,7 +11075,7 @@
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -9470,7 +11084,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -9479,7 +11093,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -9488,7 +11102,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -9497,7 +11111,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -9506,7 +11120,7 @@
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -9515,7 +11129,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -9524,7 +11138,7 @@
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -9533,123 +11147,123 @@
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:H84" xr:uid="{96482083-CDB9-4891-8BB3-78DEBC79034F}"/>
+  <autoFilter ref="A1:H84"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9657,7 +11271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
@@ -9667,15 +11281,15 @@
       <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="12" customWidth="1"/>
-    <col min="3" max="5" width="15.5703125" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="15.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="12" customWidth="1"/>
+    <col min="3" max="5" width="15.5546875" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -9692,7 +11306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -9707,34 +11321,34 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="12" customWidth="1"/>
-    <col min="6" max="7" width="19.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="16.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13" style="12" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="12" customWidth="1"/>
+    <col min="6" max="7" width="19.5546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -9760,7 +11374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>486</v>
       </c>
@@ -9774,7 +11388,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>490</v>
       </c>
@@ -9788,7 +11402,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>409</v>
       </c>
@@ -9802,7 +11416,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>409</v>
       </c>
@@ -9816,7 +11430,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>409</v>
       </c>
@@ -9830,7 +11444,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>409</v>
       </c>
@@ -9844,7 +11458,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>409</v>
       </c>
@@ -9858,7 +11472,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>409</v>
       </c>
@@ -9872,7 +11486,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>409</v>
       </c>
@@ -9886,7 +11500,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>409</v>
       </c>
@@ -9900,7 +11514,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>409</v>
       </c>
@@ -9914,7 +11528,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>410</v>
       </c>
@@ -9928,7 +11542,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>411</v>
       </c>
@@ -9942,7 +11556,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>412</v>
       </c>
@@ -9956,7 +11570,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>413</v>
       </c>
@@ -9970,7 +11584,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>414</v>
       </c>
@@ -9984,7 +11598,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>415</v>
       </c>
@@ -9998,7 +11612,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>416</v>
       </c>
@@ -10012,7 +11626,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>417</v>
       </c>
@@ -10026,7 +11640,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>418</v>
       </c>
@@ -10040,7 +11654,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>419</v>
       </c>
@@ -10054,7 +11668,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>420</v>
       </c>
@@ -10068,7 +11682,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>421</v>
       </c>
@@ -10082,7 +11696,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>422</v>
       </c>
@@ -10096,7 +11710,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>423</v>
       </c>
@@ -10110,7 +11724,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>424</v>
       </c>
@@ -10124,7 +11738,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>425</v>
       </c>
@@ -10138,7 +11752,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>426</v>
       </c>
@@ -10152,7 +11766,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>427</v>
       </c>
@@ -10166,7 +11780,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>428</v>
       </c>
@@ -10180,7 +11794,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>429</v>
       </c>
@@ -10194,7 +11808,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>430</v>
       </c>
@@ -10208,7 +11822,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>431</v>
       </c>
@@ -10222,7 +11836,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>432</v>
       </c>
@@ -10236,7 +11850,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>433</v>
       </c>
@@ -10250,7 +11864,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>378</v>
       </c>
@@ -10264,7 +11878,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>300</v>
       </c>
@@ -10278,7 +11892,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>292</v>
       </c>
@@ -10292,7 +11906,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>291</v>
       </c>
@@ -10306,7 +11920,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>297</v>
       </c>
@@ -10320,7 +11934,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>298</v>
       </c>
@@ -10334,7 +11948,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>293</v>
       </c>
@@ -10348,7 +11962,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>295</v>
       </c>
@@ -10362,7 +11976,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>294</v>
       </c>
@@ -10376,7 +11990,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>285</v>
       </c>
@@ -10390,7 +12004,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>296</v>
       </c>
@@ -10404,7 +12018,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>299</v>
       </c>
@@ -10418,7 +12032,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>277</v>
       </c>
@@ -10432,7 +12046,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>281</v>
       </c>
@@ -10446,7 +12060,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>301</v>
       </c>
@@ -10460,7 +12074,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>598</v>
       </c>
@@ -10474,7 +12088,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>303</v>
       </c>
@@ -10488,7 +12102,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>304</v>
       </c>
@@ -10502,7 +12116,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>305</v>
       </c>
@@ -10516,7 +12130,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>306</v>
       </c>
@@ -10530,7 +12144,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>307</v>
       </c>
@@ -10544,7 +12158,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>308</v>
       </c>
@@ -10558,7 +12172,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>309</v>
       </c>
@@ -10572,7 +12186,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>310</v>
       </c>
@@ -10586,7 +12200,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>311</v>
       </c>
@@ -10600,7 +12214,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>379</v>
       </c>
@@ -10614,7 +12228,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>590</v>
       </c>
@@ -10629,7 +12243,7 @@
       </c>
       <c r="I63"/>
     </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>284</v>
       </c>
@@ -10644,32 +12258,213 @@
       </c>
       <c r="I64"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>638</v>
+      </c>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>639</v>
+      </c>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>640</v>
+      </c>
       <c r="I67"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="D77"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78"/>
-      <c r="D78"/>
+    <row r="68" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>692</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
@@ -10677,15 +12472,15 @@
       <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" style="12" customWidth="1"/>
-    <col min="3" max="4" width="19.5703125" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="19.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="62.44140625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="19.5546875" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -10699,1634 +12494,1634 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
       <c r="D269" s="6"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D272" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:D272"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/metadata/safety_specs.xlsx
+++ b/metadata/safety_specs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38352" windowHeight="19992" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38352" windowHeight="19992" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="694">
   <si>
     <t>Attribute</t>
   </si>
@@ -2197,6 +2197,9 @@
   </si>
   <si>
     <t>Set to the SMQ name if the AE term matches any term within this AE query.</t>
+  </si>
+  <si>
+    <t>ADSL.ACTARM</t>
   </si>
 </sst>
 </file>
@@ -2816,7 +2819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -2980,13 +2983,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R163"/>
+  <dimension ref="A1:R164"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C160" sqref="C160"/>
+      <selection pane="bottomRight" activeCell="M140" sqref="M140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7803,7 +7806,7 @@
       <c r="O128"/>
       <c r="P128"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="13">
         <v>8</v>
       </c>
@@ -7839,7 +7842,7 @@
       <c r="O129"/>
       <c r="P129"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="13">
         <v>9</v>
       </c>
@@ -7875,7 +7878,7 @@
       <c r="O130"/>
       <c r="P130"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="13">
         <v>10</v>
       </c>
@@ -7913,7 +7916,7 @@
       <c r="O131"/>
       <c r="P131"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="13">
         <v>11</v>
       </c>
@@ -7951,7 +7954,7 @@
       <c r="O132"/>
       <c r="P132"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" s="13">
         <v>12</v>
       </c>
@@ -7989,7 +7992,7 @@
       <c r="O133"/>
       <c r="P133"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="13">
         <v>13</v>
       </c>
@@ -8011,7 +8014,7 @@
       <c r="G134"/>
       <c r="H134" s="13"/>
       <c r="I134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J134" t="s">
         <v>265</v>
@@ -8027,7 +8030,7 @@
       <c r="O134"/>
       <c r="P134"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="13">
         <v>14</v>
       </c>
@@ -8051,7 +8054,7 @@
         <v>126</v>
       </c>
       <c r="I135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J135"/>
       <c r="K135" t="s">
@@ -8065,7 +8068,7 @@
       <c r="O135"/>
       <c r="P135"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="13">
         <v>15</v>
       </c>
@@ -8089,7 +8092,7 @@
         <v>133</v>
       </c>
       <c r="I136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J136"/>
       <c r="K136" t="s">
@@ -8103,7 +8106,7 @@
       <c r="O136"/>
       <c r="P136"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="13">
         <v>16</v>
       </c>
@@ -8127,7 +8130,7 @@
         <v>126</v>
       </c>
       <c r="I137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J137"/>
       <c r="K137" t="s">
@@ -8141,7 +8144,7 @@
       <c r="O137"/>
       <c r="P137"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="13">
         <v>17</v>
       </c>
@@ -8163,7 +8166,7 @@
       <c r="G138"/>
       <c r="H138" s="13"/>
       <c r="I138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J138"/>
       <c r="K138" t="s">
@@ -8177,7 +8180,7 @@
       <c r="O138"/>
       <c r="P138"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="13">
         <v>18</v>
       </c>
@@ -8201,7 +8204,7 @@
         <v>126</v>
       </c>
       <c r="I139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J139"/>
       <c r="K139" t="s">
@@ -8215,7 +8218,7 @@
       <c r="O139"/>
       <c r="P139"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="13">
         <v>19</v>
       </c>
@@ -8223,35 +8226,36 @@
         <v>607</v>
       </c>
       <c r="C140" t="s">
-        <v>649</v>
+        <v>66</v>
       </c>
       <c r="D140" t="s">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="E140" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F140">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G140"/>
-      <c r="H140" s="13"/>
       <c r="I140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J140"/>
       <c r="K140" t="s">
         <v>23</v>
       </c>
       <c r="L140"/>
-      <c r="M140" s="11"/>
+      <c r="M140"/>
       <c r="N140" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="O140"/>
       <c r="P140"/>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q140"/>
+      <c r="R140"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="13">
         <v>20</v>
       </c>
@@ -8259,16 +8263,16 @@
         <v>607</v>
       </c>
       <c r="C141" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D141" t="s">
-        <v>680</v>
+        <v>342</v>
       </c>
       <c r="E141" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F141">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="G141"/>
       <c r="H141" s="13"/>
@@ -8282,12 +8286,12 @@
       <c r="L141"/>
       <c r="M141" s="11"/>
       <c r="N141" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O141"/>
       <c r="P141"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" s="13">
         <v>21</v>
       </c>
@@ -8295,10 +8299,10 @@
         <v>607</v>
       </c>
       <c r="C142" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D142" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E142" t="s">
         <v>84</v>
@@ -8318,12 +8322,12 @@
       <c r="L142"/>
       <c r="M142" s="11"/>
       <c r="N142" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O142"/>
       <c r="P142"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="13">
         <v>22</v>
       </c>
@@ -8331,16 +8335,16 @@
         <v>607</v>
       </c>
       <c r="C143" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D143" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E143" t="s">
         <v>84</v>
       </c>
       <c r="F143">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G143"/>
       <c r="H143" s="13"/>
@@ -8354,12 +8358,12 @@
       <c r="L143"/>
       <c r="M143" s="11"/>
       <c r="N143" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O143"/>
       <c r="P143"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="13">
         <v>23</v>
       </c>
@@ -8367,16 +8371,16 @@
         <v>607</v>
       </c>
       <c r="C144" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D144" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E144" t="s">
         <v>84</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G144"/>
       <c r="H144" s="13"/>
@@ -8390,7 +8394,7 @@
       <c r="L144"/>
       <c r="M144" s="11"/>
       <c r="N144" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O144"/>
       <c r="P144"/>
@@ -8403,16 +8407,16 @@
         <v>607</v>
       </c>
       <c r="C145" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D145" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E145" t="s">
         <v>84</v>
       </c>
       <c r="F145">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G145"/>
       <c r="H145" s="13"/>
@@ -8426,7 +8430,7 @@
       <c r="L145"/>
       <c r="M145" s="11"/>
       <c r="N145" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O145"/>
       <c r="P145"/>
@@ -8439,10 +8443,10 @@
         <v>607</v>
       </c>
       <c r="C146" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D146" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E146" t="s">
         <v>84</v>
@@ -8462,7 +8466,7 @@
       <c r="L146"/>
       <c r="M146" s="11"/>
       <c r="N146" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O146"/>
       <c r="P146"/>
@@ -8475,10 +8479,10 @@
         <v>607</v>
       </c>
       <c r="C147" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D147" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E147" t="s">
         <v>84</v>
@@ -8498,7 +8502,7 @@
       <c r="L147"/>
       <c r="M147" s="11"/>
       <c r="N147" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O147"/>
       <c r="P147"/>
@@ -8511,16 +8515,16 @@
         <v>607</v>
       </c>
       <c r="C148" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D148" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="E148" t="s">
         <v>84</v>
       </c>
       <c r="F148">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="G148"/>
       <c r="H148" s="13"/>
@@ -8534,7 +8538,7 @@
       <c r="L148"/>
       <c r="M148" s="11"/>
       <c r="N148" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O148"/>
       <c r="P148"/>
@@ -8547,10 +8551,10 @@
         <v>607</v>
       </c>
       <c r="C149" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D149" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E149" t="s">
         <v>84</v>
@@ -8570,7 +8574,7 @@
       <c r="L149"/>
       <c r="M149" s="11"/>
       <c r="N149" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="O149"/>
       <c r="P149"/>
@@ -8582,31 +8586,34 @@
       <c r="B150" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="C150" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="D150" s="12" t="s">
-        <v>659</v>
+      <c r="C150" t="s">
+        <v>658</v>
+      </c>
+      <c r="D150" t="s">
+        <v>663</v>
       </c>
       <c r="E150" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F150">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G150"/>
-      <c r="H150" s="13" t="s">
-        <v>126</v>
-      </c>
+      <c r="H150" s="13"/>
       <c r="I150" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J150"/>
       <c r="K150" t="s">
-        <v>85</v>
-      </c>
-      <c r="M150" s="12" t="s">
-        <v>620</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L150"/>
+      <c r="M150" s="11"/>
+      <c r="N150" t="s">
+        <v>690</v>
+      </c>
+      <c r="O150"/>
+      <c r="P150"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="13">
@@ -8616,16 +8623,20 @@
         <v>607</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="E151" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>211</v>
+        <v>659</v>
+      </c>
+      <c r="E151" t="s">
+        <v>226</v>
+      </c>
+      <c r="F151">
+        <v>8</v>
+      </c>
+      <c r="G151"/>
+      <c r="H151" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="I151" t="s">
         <v>49</v>
@@ -8634,7 +8645,7 @@
         <v>85</v>
       </c>
       <c r="M151" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.3">
@@ -8645,16 +8656,16 @@
         <v>607</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="E152" t="s">
-        <v>226</v>
-      </c>
-      <c r="F152">
-        <v>8</v>
+        <v>661</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="I152" t="s">
         <v>49</v>
@@ -8663,7 +8674,7 @@
         <v>85</v>
       </c>
       <c r="M152" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.3">
@@ -8674,10 +8685,10 @@
         <v>607</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E153" t="s">
         <v>226</v>
@@ -8685,10 +8696,6 @@
       <c r="F153">
         <v>8</v>
       </c>
-      <c r="G153"/>
-      <c r="H153" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="I153" t="s">
         <v>49</v>
       </c>
@@ -8696,7 +8703,7 @@
         <v>85</v>
       </c>
       <c r="M153" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.3">
@@ -8707,16 +8714,20 @@
         <v>607</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="E154" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F154" s="12" t="s">
-        <v>211</v>
+        <v>663</v>
+      </c>
+      <c r="E154" t="s">
+        <v>226</v>
+      </c>
+      <c r="F154">
+        <v>8</v>
+      </c>
+      <c r="G154"/>
+      <c r="H154" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="I154" t="s">
         <v>49</v>
@@ -8725,7 +8736,7 @@
         <v>85</v>
       </c>
       <c r="M154" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.3">
@@ -8736,16 +8747,16 @@
         <v>607</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="E155" t="s">
-        <v>226</v>
-      </c>
-      <c r="F155">
-        <v>8</v>
+        <v>662</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="I155" t="s">
         <v>49</v>
@@ -8754,7 +8765,7 @@
         <v>85</v>
       </c>
       <c r="M155" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.3">
@@ -8765,10 +8776,10 @@
         <v>607</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E156" t="s">
         <v>226</v>
@@ -8783,7 +8794,7 @@
         <v>85</v>
       </c>
       <c r="M156" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.3">
@@ -8794,16 +8805,16 @@
         <v>607</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E157" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F157">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I157" t="s">
         <v>49</v>
@@ -8812,7 +8823,7 @@
         <v>85</v>
       </c>
       <c r="M157" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.3">
@@ -8823,20 +8834,16 @@
         <v>607</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E158" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F158">
-        <v>8</v>
-      </c>
-      <c r="G158"/>
-      <c r="H158" s="13" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="I158" t="s">
         <v>49</v>
@@ -8845,7 +8852,7 @@
         <v>85</v>
       </c>
       <c r="M158" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.3">
@@ -8856,16 +8863,20 @@
         <v>607</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="E159" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F159" s="12" t="s">
-        <v>211</v>
+        <v>667</v>
+      </c>
+      <c r="E159" t="s">
+        <v>226</v>
+      </c>
+      <c r="F159">
+        <v>8</v>
+      </c>
+      <c r="G159"/>
+      <c r="H159" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="I159" t="s">
         <v>49</v>
@@ -8874,7 +8885,7 @@
         <v>85</v>
       </c>
       <c r="M159" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.3">
@@ -8885,10 +8896,10 @@
         <v>607</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>368</v>
+        <v>617</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>84</v>
@@ -8903,7 +8914,7 @@
         <v>85</v>
       </c>
       <c r="M160" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
@@ -8914,10 +8925,10 @@
         <v>607</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>618</v>
+        <v>368</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>84</v>
@@ -8932,7 +8943,7 @@
         <v>85</v>
       </c>
       <c r="M161" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
@@ -8943,16 +8954,16 @@
         <v>607</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E162" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>673</v>
+        <v>211</v>
       </c>
       <c r="I162" t="s">
         <v>49</v>
@@ -8961,7 +8972,7 @@
         <v>85</v>
       </c>
       <c r="M162" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
@@ -8972,10 +8983,10 @@
         <v>607</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>648</v>
+        <v>619</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E163" s="12" t="s">
         <v>84</v>
@@ -8990,6 +9001,35 @@
         <v>85</v>
       </c>
       <c r="M163" s="12" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164" s="13">
+        <v>43</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="I164" t="s">
+        <v>49</v>
+      </c>
+      <c r="K164" t="s">
+        <v>85</v>
+      </c>
+      <c r="M164" s="12" t="s">
         <v>633</v>
       </c>
     </row>

--- a/metadata/safety_specs.xlsx
+++ b/metadata/safety_specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fanny.Gautier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A89EF14-80C5-45B6-9F82-86D5F31B877C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A063C20B-47FA-426E-A1CB-54C3717EE6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28770" windowHeight="14505" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28800" windowHeight="14535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -2982,11 +2982,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5004,7 +5004,7 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C65" t="s">
         <v>235</v>
@@ -10407,8 +10407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
